--- a/src/main/resources/190-wanxin-p2p/consumer-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/consumer-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="338">
   <si>
     <t>类名</t>
   </si>
@@ -385,7 +385,7 @@
     <t>com.wanxin.consumer.message.GatewayNotifyConsumer$1</t>
   </si>
   <si>
-    <t>consumeMessage(org.apache.rocketmq.client.consumer.listener.ConsumeConcurrentlyContext)</t>
+    <t>consumeMessage(java.util.List,org.apache.rocketmq.client.consumer.listener.ConsumeConcurrentlyContext)</t>
   </si>
   <si>
     <t>org.apache.rocketmq.client.consumer.listener.ConsumeConcurrentlyStatus</t>
@@ -589,13 +589,13 @@
     <t>com.wanxin.consumer.common.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.consumer.service.ConsumerDetailsService</t>
   </si>
   <si>
-    <t>createConsumerDetails(com.wanxin.api.consumer.model.ConsumerDetailsDTO)</t>
+    <t>createConsumerDetails(com.wanxin.api.consumer.model.ConsumerDetailsDTO,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.consumer.service.BankCardService</t>
@@ -691,7 +691,7 @@
     <t>com.wanxin.consumer.interceptor.TokenInterceptor</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
   </si>
   <si>
     <t>字段名</t>
@@ -1016,9 +1016,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>createConsumerDetails(com.wanxin.api.consumer.model.ConsumerDetailsDTO,java.lang.String)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -16053,7 +16050,7 @@
         <v>220</v>
       </c>
       <c r="B243" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C243" t="s">
         <v>119</v>
@@ -16070,7 +16067,7 @@
         <v>220</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C244" t="s">
         <v>220</v>
@@ -16087,7 +16084,7 @@
         <v>220</v>
       </c>
       <c r="B245" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C245" t="s">
         <v>72</v>
@@ -16104,7 +16101,7 @@
         <v>220</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C246" t="s">
         <v>72</v>
@@ -16121,7 +16118,7 @@
         <v>220</v>
       </c>
       <c r="B247" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C247" t="s">
         <v>40</v>
@@ -16138,7 +16135,7 @@
         <v>220</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
@@ -16165,10 +16162,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
-      </c>
-      <c r="B1" t="s">
-        <v>334</v>
       </c>
       <c r="C1" t="s">
         <v>326</v>
@@ -16446,7 +16443,7 @@
         <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
         <v>329</v>
@@ -16558,10 +16555,10 @@
         <v>325</v>
       </c>
       <c r="C1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" t="s">
         <v>335</v>
-      </c>
-      <c r="D1" t="s">
-        <v>336</v>
       </c>
       <c r="E1" t="s">
         <v>328</v>
@@ -16582,16 +16579,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
       </c>
-      <c r="B1" t="s">
-        <v>334</v>
-      </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1" t="s">
         <v>328</v>
@@ -16621,7 +16618,7 @@
         <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
         <v>328</v>
@@ -16836,7 +16833,7 @@
         <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>171</v>
@@ -16863,16 +16860,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
-      </c>
-      <c r="B1" t="s">
-        <v>334</v>
       </c>
       <c r="C1" t="s">
         <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
         <v>328</v>
